--- a/Benchmark-Models/Fujita_SciSignal2010/Data/model1_data4.xlsx
+++ b/Benchmark-Models/Fujita_SciSignal2010/Data/model1_data4.xlsx
@@ -430,13 +430,13 @@
         <v>60.0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.287552911963987</v>
+        <v>0.28867874820604</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5758083455674734</v>
+        <v>0.5775201234734658</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001284325964262475</v>
+        <v>0.0012913942590213107</v>
       </c>
     </row>
     <row r="4">
@@ -444,13 +444,13 @@
         <v>120.0</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3027758924653905</v>
+        <v>0.3024265195875436</v>
       </c>
       <c r="C4" t="n">
-        <v>0.81868822044369</v>
+        <v>0.820065063037273</v>
       </c>
       <c r="D4" t="n">
-        <v>0.013770147463656603</v>
+        <v>0.013823873321218367</v>
       </c>
     </row>
     <row r="5">
@@ -458,13 +458,13 @@
         <v>300.0</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05874019785623293</v>
+        <v>0.057156946260862374</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5730102960340917</v>
+        <v>0.5723433656005043</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1357831768145795</v>
+        <v>0.13614850871521791</v>
       </c>
     </row>
     <row r="6">
@@ -472,13 +472,13 @@
         <v>600.0</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0024202170436366617</v>
+        <v>0.0021514560927585837</v>
       </c>
       <c r="C6" t="n">
-        <v>0.19161478771834237</v>
+        <v>0.19045210291853296</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4317319675100296</v>
+        <v>0.43222646688167493</v>
       </c>
     </row>
     <row r="7">
@@ -486,13 +486,13 @@
         <v>900.0</v>
       </c>
       <c r="B7" t="n">
-        <v>3.476383673093864E-4</v>
+        <v>2.3310751678351139E-4</v>
       </c>
       <c r="C7" t="n">
-        <v>0.12617325276295313</v>
+        <v>0.12611333072506858</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6581119566008075</v>
+        <v>0.6582844009493878</v>
       </c>
     </row>
     <row r="8">
@@ -500,13 +500,13 @@
         <v>1800.0</v>
       </c>
       <c r="B8" t="n">
-        <v>2.6989262183475663E-4</v>
+        <v>1.6512525188912755E-4</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08839945385219657</v>
+        <v>0.08839177749801688</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8936164338385919</v>
+        <v>0.8936394186721766</v>
       </c>
     </row>
     <row r="9">
@@ -514,13 +514,13 @@
         <v>3600.0</v>
       </c>
       <c r="B9" t="n">
-        <v>2.69888926154291E-4</v>
+        <v>1.6512250710035045E-4</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04719651125194916</v>
+        <v>0.046557322328054825</v>
       </c>
       <c r="D9" t="n">
-        <v>0.666556572260622</v>
+        <v>0.6658921565064987</v>
       </c>
     </row>
   </sheetData>
